--- a/TestProject1/TestedFiles/рассрочки.xlsx
+++ b/TestProject1/TestedFiles/рассрочки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
   <si>
     <t>Налоговые поступления</t>
   </si>
@@ -977,6 +977,12 @@
   </si>
   <si>
     <t xml:space="preserve">58 </t>
+  </si>
+  <si>
+    <t>заведомая ошибка в датах</t>
+  </si>
+  <si>
+    <t>отсрочка</t>
   </si>
 </sst>
 </file>
@@ -1110,12 +1116,18 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -1338,7 +1350,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1601,12 +1613,273 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFED8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFED8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFED8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFED8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2413,36 +2686,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:Q9" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A3:Q9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:Q10" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+  <autoFilter ref="A3:Q10"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="0" dataDxfId="16">
+    <tableColumn id="1" name="0" dataDxfId="42">
       <calculatedColumnFormula>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="1" dataDxfId="15"/>
-    <tableColumn id="2" name="2" dataDxfId="14"/>
-    <tableColumn id="3" name="3" dataDxfId="13"/>
-    <tableColumn id="17" name="4" dataDxfId="12"/>
-    <tableColumn id="16" name="5" dataDxfId="11"/>
-    <tableColumn id="22" name="51" dataDxfId="10">
+    <tableColumn id="15" name="1" dataDxfId="41"/>
+    <tableColumn id="2" name="2" dataDxfId="40"/>
+    <tableColumn id="3" name="3" dataDxfId="39"/>
+    <tableColumn id="17" name="4" dataDxfId="38"/>
+    <tableColumn id="16" name="5" dataDxfId="37"/>
+    <tableColumn id="22" name="51" dataDxfId="36">
       <calculatedColumnFormula>"ГНИ"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="6" dataDxfId="9"/>
-    <tableColumn id="19" name="7" dataDxfId="8"/>
-    <tableColumn id="25" name="71" dataDxfId="7">
+    <tableColumn id="18" name="6" dataDxfId="35"/>
+    <tableColumn id="19" name="7" dataDxfId="34"/>
+    <tableColumn id="25" name="71" dataDxfId="33">
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[7]]&lt;&gt;"",IFERROR(VLOOKUP(Таблица1[[#This Row],[7]],код_платеж!$A$1:$B$205,2,FALSE),"Неправильный код платежа"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="8" dataDxfId="6"/>
-    <tableColumn id="20" name="9" dataDxfId="5"/>
-    <tableColumn id="23" name="10" dataDxfId="4"/>
-    <tableColumn id="6" name="11" dataDxfId="3"/>
-    <tableColumn id="4" name="111" dataDxfId="2">
+    <tableColumn id="21" name="8" dataDxfId="32"/>
+    <tableColumn id="20" name="9" dataDxfId="31"/>
+    <tableColumn id="23" name="10" dataDxfId="30"/>
+    <tableColumn id="6" name="11" dataDxfId="29"/>
+    <tableColumn id="4" name="111" dataDxfId="28">
       <calculatedColumnFormula>Таблица1[[#This Row],[9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="12" dataDxfId="1">
+    <tableColumn id="24" name="12" dataDxfId="27">
       <calculatedColumnFormula>IF(OR(AND(Таблица1[[#This Row],[6]]&lt;&gt;0,Таблица1[[#This Row],[11]]&lt;&gt;0),AND(Таблица1[[#This Row],[8]]&lt;&gt;0,Таблица1[[#This Row],[9]]&lt;&gt;0)),IF(OR(Таблица1[[#This Row],[6]]=Таблица1[[#This Row],[11]],Таблица1[[#This Row],[8]]=Таблица1[[#This Row],[9]]),"отсрочка","рассрочка"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="13" dataDxfId="0"/>
+    <tableColumn id="12" name="13" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2738,13 +3011,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +3042,7 @@
     <col min="18" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>209</v>
       </c>
@@ -2789,7 +3062,7 @@
       <c r="O1" s="81"/>
       <c r="P1" s="81"/>
     </row>
-    <row r="2" spans="1:17" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>228</v>
       </c>
@@ -2842,7 +3115,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>227</v>
       </c>
@@ -2895,7 +3168,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="55">
         <f>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</f>
         <v>158769</v>
@@ -2916,7 +3189,7 @@
         <v>242</v>
       </c>
       <c r="G4" s="61" t="str">
-        <f t="shared" ref="G4:G9" si="0">"ГНИ"</f>
+        <f t="shared" ref="G4:G11" si="0">"ГНИ"</f>
         <v>ГНИ</v>
       </c>
       <c r="H4" s="62">
@@ -2950,7 +3223,7 @@
       </c>
       <c r="Q4" s="67"/>
     </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <f>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</f>
         <v>75561</v>
@@ -3006,7 +3279,7 @@
       </c>
       <c r="Q5" s="67"/>
     </row>
-    <row r="6" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="68">
         <f>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</f>
         <v>1625216</v>
@@ -3062,7 +3335,7 @@
       </c>
       <c r="Q6" s="80"/>
     </row>
-    <row r="7" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <f>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</f>
         <v>87816</v>
@@ -3118,7 +3391,7 @@
       </c>
       <c r="Q7" s="67"/>
     </row>
-    <row r="8" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <f>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</f>
         <v>343786</v>
@@ -3174,7 +3447,7 @@
       </c>
       <c r="Q8" s="80"/>
     </row>
-    <row r="9" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <f>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</f>
         <v>4735941</v>
@@ -3229,6 +3502,64 @@
         <v>отсрочка</v>
       </c>
       <c r="Q9" s="80"/>
+    </row>
+    <row r="10" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="68">
+        <f>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</f>
+        <v>2111748</v>
+      </c>
+      <c r="B10" s="69">
+        <v>7</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="71">
+        <v>60700130</v>
+      </c>
+      <c r="E10" s="72">
+        <v>43826</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>ГНИ</v>
+      </c>
+      <c r="H10" s="75">
+        <v>180472</v>
+      </c>
+      <c r="I10" s="76">
+        <v>11020100</v>
+      </c>
+      <c r="J10" s="77" t="str">
+        <f>IF(Таблица1[[#This Row],[7]]&lt;&gt;"",IFERROR(VLOOKUP(Таблица1[[#This Row],[7]],код_платеж!$A$1:$B$205,2,FALSE),"Неправильный код платежа"),"")</f>
+        <v>Налог на прибыль предприятий</v>
+      </c>
+      <c r="K10" s="72">
+        <v>43826</v>
+      </c>
+      <c r="L10" s="72">
+        <v>43881</v>
+      </c>
+      <c r="M10" s="76">
+        <v>2</v>
+      </c>
+      <c r="N10" s="75">
+        <v>80472</v>
+      </c>
+      <c r="O10" s="78">
+        <f>Таблица1[[#This Row],[9]]</f>
+        <v>43881</v>
+      </c>
+      <c r="P10" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q10" s="80"/>
+      <c r="S10" s="84" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -3239,57 +3570,82 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K9">
-    <cfRule type="expression" dxfId="26" priority="7">
+    <cfRule type="expression" dxfId="52" priority="13">
       <formula>AND(E4&gt;0,K4&lt;=E4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L9">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="L4:L10">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThan">
       <formula>K4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N9">
-    <cfRule type="expression" dxfId="24" priority="5">
+  <conditionalFormatting sqref="N4:N10">
+    <cfRule type="expression" dxfId="50" priority="11">
       <formula>AND(N4&lt;&gt;0,OR(N4-ROUND(H4/((YEAR(L4)-YEAR(K4))*12+(MONTH(L4)-MONTH(K4)+1)),2)&gt;5,N4-ROUND(H4/((YEAR(L4)-YEAR(K4))*12+(MONTH(L4)-MONTH(K4)+1)),2)&lt;-5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M9">
-    <cfRule type="expression" dxfId="23" priority="4">
+  <conditionalFormatting sqref="M4:M10">
+    <cfRule type="expression" dxfId="49" priority="10">
       <formula>((YEAR(L4)-YEAR(E4))*12+(MONTH(L4)-MONTH(E4)))&lt;&gt;M4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L9">
-    <cfRule type="expression" dxfId="22" priority="6">
+  <conditionalFormatting sqref="L4:L10">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>AND(P4="отсрочка",L4&lt;&gt;K4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N9">
-    <cfRule type="expression" dxfId="21" priority="2">
+  <conditionalFormatting sqref="N4:N10">
+    <cfRule type="expression" dxfId="47" priority="8">
       <formula>AND(P4="отсрочка",N4&lt;&gt;H4)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+      <formula>K10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>AND(N10&lt;&gt;0,OR(N10-ROUND(H10/((YEAR(L10)-YEAR(K10))*12+(MONTH(L10)-MONTH(K10)+1)),2)&gt;5,N10-ROUND(H10/((YEAR(L10)-YEAR(K10))*12+(MONTH(L10)-MONTH(K10)+1)),2)&lt;-5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>((YEAR(L10)-YEAR(E10))*12+(MONTH(L10)-MONTH(E10)))&lt;&gt;M10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>AND(P10="отсрочка",L10&lt;&gt;K10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>AND(P10="отсрочка",N10&lt;&gt;H10)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Допустимые значения ячейки:_x000a_  рассрочка_x000a_  отсрочка" sqref="P4:P9">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Допустимые значения ячейки:_x000a_  рассрочка_x000a_  отсрочка" sqref="P4:P10">
       <formula1>OR(P4="рассрочка",P4="отсрочка",P4="")</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Неверный код платежа" sqref="I4:I9">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Неверный код платежа" sqref="I4:I10">
       <formula1>10000000</formula1>
       <formula2>30000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверно введен код плательщика" sqref="D4:D9">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Неверно введен код плательщика" sqref="D4:D10">
       <formula1>11111</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Привильно вводить код инспекции 1, а не 1201_x000a_либо 4, а не 1204" sqref="B4:B9">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Привильно вводить код инспекции 1, а не 1201_x000a_либо 4, а не 1204" sqref="B4:B10">
       <formula1>1</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N9">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N10">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Дата должна быть больше либо равна дате первого решения о предоставлении рассрочки либо отсрочки" sqref="O4:O9">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Дата должна быть больше либо равна дате первого решения о предоставлении рассрочки либо отсрочки" sqref="O4:O10">
       <formula1>L4</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A9">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A10">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestProject1/TestedFiles/рассрочки.xlsx
+++ b/TestProject1/TestedFiles/рассрочки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="247">
   <si>
     <t>Налоговые поступления</t>
   </si>
@@ -976,13 +976,19 @@
     <t>100</t>
   </si>
   <si>
-    <t xml:space="preserve">58 </t>
-  </si>
-  <si>
     <t>заведомая ошибка в датах</t>
   </si>
   <si>
     <t>отсрочка</t>
+  </si>
+  <si>
+    <t>авав</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Заведомая ошибка пустая колонка решения</t>
   </si>
 </sst>
 </file>
@@ -1604,6 +1610,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,33 +1620,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -1677,136 +1663,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFED8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFED8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFED8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2606,66 +2462,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFED8D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2686,36 +2482,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:Q10" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A3:Q10" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A3:Q10"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="0" dataDxfId="42">
+    <tableColumn id="1" name="0" dataDxfId="27">
       <calculatedColumnFormula>ROUND(IF(Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]&gt;1000000000000000,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000000*13,Таблица1[[#This Row],[3]]*Таблица1[[#This Row],[4]]*Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[6]]/1000000000*13),0)+Таблица1[[#This Row],[1]]+ROUND(Таблица1[[#This Row],[7]]/Таблица1[[#This Row],[3]]*7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="1" dataDxfId="41"/>
-    <tableColumn id="2" name="2" dataDxfId="40"/>
-    <tableColumn id="3" name="3" dataDxfId="39"/>
-    <tableColumn id="17" name="4" dataDxfId="38"/>
-    <tableColumn id="16" name="5" dataDxfId="37"/>
-    <tableColumn id="22" name="51" dataDxfId="36">
+    <tableColumn id="15" name="1" dataDxfId="26"/>
+    <tableColumn id="2" name="2" dataDxfId="25"/>
+    <tableColumn id="3" name="3" dataDxfId="24"/>
+    <tableColumn id="17" name="4" dataDxfId="23"/>
+    <tableColumn id="16" name="5" dataDxfId="22"/>
+    <tableColumn id="22" name="51" dataDxfId="21">
       <calculatedColumnFormula>"ГНИ"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="6" dataDxfId="35"/>
-    <tableColumn id="19" name="7" dataDxfId="34"/>
-    <tableColumn id="25" name="71" dataDxfId="33">
+    <tableColumn id="18" name="6" dataDxfId="20"/>
+    <tableColumn id="19" name="7" dataDxfId="19"/>
+    <tableColumn id="25" name="71" dataDxfId="18">
       <calculatedColumnFormula>IF(Таблица1[[#This Row],[7]]&lt;&gt;"",IFERROR(VLOOKUP(Таблица1[[#This Row],[7]],код_платеж!$A$1:$B$205,2,FALSE),"Неправильный код платежа"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="8" dataDxfId="32"/>
-    <tableColumn id="20" name="9" dataDxfId="31"/>
-    <tableColumn id="23" name="10" dataDxfId="30"/>
-    <tableColumn id="6" name="11" dataDxfId="29"/>
-    <tableColumn id="4" name="111" dataDxfId="28">
+    <tableColumn id="21" name="8" dataDxfId="17"/>
+    <tableColumn id="20" name="9" dataDxfId="16"/>
+    <tableColumn id="23" name="10" dataDxfId="15"/>
+    <tableColumn id="6" name="11" dataDxfId="14"/>
+    <tableColumn id="4" name="111" dataDxfId="13">
       <calculatedColumnFormula>Таблица1[[#This Row],[9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="12" dataDxfId="27">
+    <tableColumn id="24" name="12" dataDxfId="12">
       <calculatedColumnFormula>IF(OR(AND(Таблица1[[#This Row],[6]]&lt;&gt;0,Таблица1[[#This Row],[11]]&lt;&gt;0),AND(Таблица1[[#This Row],[8]]&lt;&gt;0,Таблица1[[#This Row],[9]]&lt;&gt;0)),IF(OR(Таблица1[[#This Row],[6]]=Таблица1[[#This Row],[11]],Таблица1[[#This Row],[8]]=Таблица1[[#This Row],[9]]),"отсрочка","рассрочка"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="13" dataDxfId="26"/>
+    <tableColumn id="12" name="13" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3014,10 +2810,10 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3043,24 +2839,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
     </row>
     <row r="2" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
@@ -3186,10 +2982,10 @@
         <v>43825</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G4" s="61" t="str">
-        <f t="shared" ref="G4:G11" si="0">"ГНИ"</f>
+        <f t="shared" ref="G4:G10" si="0">"ГНИ"</f>
         <v>ГНИ</v>
       </c>
       <c r="H4" s="62">
@@ -3221,7 +3017,9 @@
         <f>IF(OR(AND(Таблица1[[#This Row],[6]]&lt;&gt;0,Таблица1[[#This Row],[11]]&lt;&gt;0),AND(Таблица1[[#This Row],[8]]&lt;&gt;0,Таблица1[[#This Row],[9]]&lt;&gt;0)),IF(OR(Таблица1[[#This Row],[6]]=Таблица1[[#This Row],[11]],Таблица1[[#This Row],[8]]=Таблица1[[#This Row],[9]]),"отсрочка","рассрочка"),"")</f>
         <v>рассрочка</v>
       </c>
-      <c r="Q4" s="67"/>
+      <c r="Q4" s="67" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
@@ -3325,10 +3123,7 @@
       <c r="N6" s="75">
         <v>58000</v>
       </c>
-      <c r="O6" s="78">
-        <f>Таблица1[[#This Row],[9]]</f>
-        <v>43917</v>
-      </c>
+      <c r="O6" s="78"/>
       <c r="P6" s="79" t="str">
         <f>IF(OR(AND(Таблица1[[#This Row],[6]]&lt;&gt;0,Таблица1[[#This Row],[11]]&lt;&gt;0),AND(Таблица1[[#This Row],[8]]&lt;&gt;0,Таблица1[[#This Row],[9]]&lt;&gt;0)),IF(OR(Таблица1[[#This Row],[6]]=Таблица1[[#This Row],[11]],Таблица1[[#This Row],[8]]=Таблица1[[#This Row],[9]]),"отсрочка","рассрочка"),"")</f>
         <v>рассрочка</v>
@@ -3464,9 +3259,7 @@
       <c r="E9" s="72">
         <v>43826</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>241</v>
-      </c>
+      <c r="F9" s="73"/>
       <c r="G9" s="74" t="str">
         <f t="shared" si="0"/>
         <v>ГНИ</v>
@@ -3502,6 +3295,9 @@
         <v>отсрочка</v>
       </c>
       <c r="Q9" s="80"/>
+      <c r="S9" s="50" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="68">
@@ -3554,11 +3350,11 @@
         <v>43881</v>
       </c>
       <c r="P10" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="80"/>
-      <c r="S10" s="84" t="s">
-        <v>243</v>
+      <c r="S10" s="81" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3570,57 +3366,57 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K9">
-    <cfRule type="expression" dxfId="52" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(E4&gt;0,K4&lt;=E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L10">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>K4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N10">
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>AND(N4&lt;&gt;0,OR(N4-ROUND(H4/((YEAR(L4)-YEAR(K4))*12+(MONTH(L4)-MONTH(K4)+1)),2)&gt;5,N4-ROUND(H4/((YEAR(L4)-YEAR(K4))*12+(MONTH(L4)-MONTH(K4)+1)),2)&lt;-5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M10">
-    <cfRule type="expression" dxfId="49" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>((YEAR(L4)-YEAR(E4))*12+(MONTH(L4)-MONTH(E4)))&lt;&gt;M4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L10">
-    <cfRule type="expression" dxfId="48" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(P4="отсрочка",L4&lt;&gt;K4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N10">
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND(P4="отсрочка",N4&lt;&gt;H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>K10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(N10&lt;&gt;0,OR(N10-ROUND(H10/((YEAR(L10)-YEAR(K10))*12+(MONTH(L10)-MONTH(K10)+1)),2)&gt;5,N10-ROUND(H10/((YEAR(L10)-YEAR(K10))*12+(MONTH(L10)-MONTH(K10)+1)),2)&lt;-5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>((YEAR(L10)-YEAR(E10))*12+(MONTH(L10)-MONTH(E10)))&lt;&gt;M10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(P10="отсрочка",L10&lt;&gt;K10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(P10="отсрочка",N10&lt;&gt;H10)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4016,7 +3812,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="82">
+      <c r="A44" s="83">
         <v>14020200</v>
       </c>
       <c r="B44" s="34" t="s">
@@ -4024,7 +3820,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="26" t="s">
         <v>33</v>
       </c>
